--- a/mcmaster_excel/Stainless_Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.219"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.080"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.250"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.015"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>91241A111</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$7.98</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.015"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>91241A412</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -693,17 +605,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>91241A414</t>
+          <t>91241A111</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>$7.98</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>91241A416</t>
+          <t>91241A412</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>91241A418</t>
+          <t>91241A414</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +826,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>91241A420</t>
+          <t>91241A416</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>91241A422</t>
+          <t>91241A418</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14.22</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1053,17 +965,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>91241A112</t>
+          <t>91241A420</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1125,17 +1037,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>91241A113</t>
+          <t>91241A422</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>14.22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1162,27 +1074,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.025"</t>
+          <t>0.015"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1202,17 +1114,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>91241A114</t>
+          <t>91241A112</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1234,27 +1146,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.025"</t>
+          <t>0.015"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1269,22 +1181,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>91241A526</t>
+          <t>91241A113</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1341,17 +1253,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>91241A529</t>
+          <t>91241A114</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>91241A532</t>
+          <t>91241A526</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1485,17 +1397,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>91241A536</t>
+          <t>91241A529</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1562,12 +1474,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>91241A539</t>
+          <t>91241A532</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,12 +1546,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>91241A543</t>
+          <t>91241A536</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1701,17 +1613,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>91241A115</t>
+          <t>91241A539</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>91241A116</t>
+          <t>91241A543</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1810,22 +1722,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.030"</t>
+          <t>0.025"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1850,17 +1762,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>91241A117</t>
+          <t>91241A115</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1882,22 +1794,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.030"</t>
+          <t>0.025"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1917,22 +1829,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>91241A652</t>
+          <t>91241A116</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1989,17 +1901,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>91241A657</t>
+          <t>91241A117</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>91241A658</t>
+          <t>91241A652</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2133,17 +2045,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>91241A118</t>
+          <t>91241A657</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2205,17 +2117,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>91241A119</t>
+          <t>91241A658</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2242,22 +2154,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.446"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.030"</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2282,17 +2194,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>91241A121</t>
+          <t>91241A118</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2314,22 +2226,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.446"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.030"</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2354,17 +2266,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>91241A122</t>
+          <t>91241A119</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>91241A123</t>
+          <t>91241A121</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2410,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>91241A124</t>
+          <t>91241A122</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2570,17 +2482,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>91241A125</t>
+          <t>91241A123</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2642,17 +2554,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>91241A126</t>
+          <t>91241A124</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2709,17 +2621,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>91241A773</t>
+          <t>91241A125</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2781,17 +2693,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>91241A775</t>
+          <t>91241A126</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2853,17 +2765,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>91241A127</t>
+          <t>91241A773</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,70 +2792,214 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>5/8"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.446"</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.032"</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>91241A775</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.373"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.133"</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.446"</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.032"</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>91241A127</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.373"</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.133"</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.446"</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>0.032"</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>No. 2</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>91241A128</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>10.09</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>10-32</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
